--- a/assets/other/2019-08-05-Berryphase_NbN.xlsx
+++ b/assets/other/2019-08-05-Berryphase_NbN.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XiaoChengcheng/Desktop/NbN_all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5413D0-5C09-1344-AE5A-C3804C447A4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D8CA5E-3574-0641-8BC1-256B4935B61A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C2D058E0-2689-334C-A919-ABC9FFC7801B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{C2D058E0-2689-334C-A919-ABC9FFC7801B}"/>
   </bookViews>
   <sheets>
     <sheet name="VASP_chgcent" sheetId="1" r:id="rId1"/>
-    <sheet name="QE_BP" sheetId="2" r:id="rId2"/>
+    <sheet name="VASP_BP" sheetId="3" r:id="rId2"/>
+    <sheet name="QE_BP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>X</t>
   </si>
@@ -119,11 +120,29 @@
   <si>
     <t>P (C/m)</t>
   </si>
+  <si>
+    <t>VASP fix occ</t>
+  </si>
+  <si>
+    <t>ION</t>
+  </si>
+  <si>
+    <t>ELECT</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -159,11 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,6 +720,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Polarization vs Delta</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-HK">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -761,132 +812,204 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>VASP_chgcent!$A$32:$A$50</c:f>
+              <c:f>VASP_BP!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>0.000000000000</c:formatCode>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>1.1693455909180215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0913892181901534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0134328454622852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93547647273441714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8575201000065491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77956372727868095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7016073545508128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62365098182294476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54569460909507672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46773823636720857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38978186363934048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31182549091147238</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23386911818360429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15591274545573619</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.7956372727868095E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-15</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>-16</c:v>
+                  <c:v>-7.7956372727868095E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-17</c:v>
+                  <c:v>-0.15591274545573619</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-18</c:v>
+                  <c:v>-0.23386911818360429</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.31182549091147238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.38978186363934048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.46773823636720857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.54569460909507672</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.62365098182294476</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.7016073545508128</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.77956372727868095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.8575201000065491</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.93547647273441714</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.0134328454622852</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.0913892181901534</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.1693455909180215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VASP_chgcent!$E$32:$E$50</c:f>
+              <c:f>VASP_BP!$F$6:$F$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>0.000000000000</c:formatCode>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>186.028524</c:v>
+                  <c:v>4.8553190650692243E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>186.39765</c:v>
+                  <c:v>4.8535943418720916E-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186.76882800000001</c:v>
+                  <c:v>4.8516072821368824E-9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>187.14396599999998</c:v>
+                  <c:v>4.8492834641506692E-9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187.52414400000001</c:v>
+                  <c:v>4.8465652110859307E-9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.91271</c:v>
+                  <c:v>4.8465652110859307E-9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188.31277800000001</c:v>
+                  <c:v>4.8434153120862039E-9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>188.72071199999999</c:v>
+                  <c:v>4.8398300460658416E-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189.13109399999999</c:v>
+                  <c:v>4.8358466238813083E-9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>189.539298</c:v>
+                  <c:v>4.8323934564013965E-9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>189.94528800000001</c:v>
+                  <c:v>4.8304864000075849E-9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>190.34899200000001</c:v>
+                  <c:v>4.8310464233973771E-9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>190.75059000000002</c:v>
+                  <c:v>4.8330055749902375E-9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>191.15038799999999</c:v>
+                  <c:v>4.8341163190557063E-9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>191.5488</c:v>
+                  <c:v>4.8330762756175194E-9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>191.946528</c:v>
+                  <c:v>4.8428273805540644E-9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>192.344832</c:v>
+                  <c:v>4.852913383198789E-9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>192.74599800000001</c:v>
+                  <c:v>4.8518733397606037E-9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>193.14955799999998</c:v>
+                  <c:v>4.8529840838260709E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8552781331271116E-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8558381565169047E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8539311001230939E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8504779326431821E-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8464945104586472E-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8429092444382848E-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8397593454385581E-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8397593454385581E-9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8370410923738212E-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.834717274387608E-9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8327302146523988E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8310054914552653E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,171 +1017,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FD7-FE4B-81A8-6BF6C565F34E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>VASP_chgcent!$A$32:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>VASP_chgcent!$F$32:$F$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>186.02860000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>186.41840000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>186.8082</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>187.1979</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>187.58770000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>187.97750000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>188.3673</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>188.75710000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>189.14680000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>189.53660000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>189.9264</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>190.31620000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>190.70600000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>191.0958</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>191.4855</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>191.87530000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>192.26510000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>192.6549</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>193.04470000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7FD7-FE4B-81A8-6BF6C565F34E}"/>
+              <c16:uniqueId val="{00000000-7FF9-3343-8F3B-A5A7B575C265}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1070,11 +1029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198797792"/>
-        <c:axId val="198977760"/>
+        <c:axId val="1966004463"/>
+        <c:axId val="1932684511"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198797792"/>
+        <c:axId val="1966004463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1053,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1131,12 +1090,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198977760"/>
+        <c:crossAx val="1932684511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198977760"/>
+        <c:axId val="1932684511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1115,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1193,7 +1152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198797792"/>
+        <c:crossAx val="1966004463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1205,37 +1164,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3451,15 +3379,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3484,25 +3412,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B9A1E7-3D53-2148-96DB-7CD2DD4D826C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CF4418-E491-F34A-B954-8B4EA1D2BD6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3447,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3523,7 +3456,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3863,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336B7149-43D0-A045-BF8B-4D4455CB0191}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3872,8 +3805,7 @@
     <col min="1" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4048,6 +3980,7 @@
       <c r="H13" t="s">
         <v>25</v>
       </c>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -4832,6 +4765,616 @@
       <c r="H50">
         <f t="shared" si="0"/>
         <v>-1.9509279935811689E-11</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F58:F73">
+    <sortCondition descending="1" ref="F58"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD5F52-49BA-A34E-9944-C56F81F013E1}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I52" sqref="I21:J52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.1693455909180215</v>
+      </c>
+      <c r="C6">
+        <v>-5.45695</v>
+      </c>
+      <c r="D6">
+        <v>31.5532</v>
+      </c>
+      <c r="E6">
+        <v>26.096250000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <f>E6*1.602*10^-19*10^-10/(3.1531606985049*2.73071726719376)/10^-20</f>
+        <v>4.8553190650692243E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.0913892181901534</v>
+      </c>
+      <c r="C7">
+        <v>-5.0671600000000003</v>
+      </c>
+      <c r="D7">
+        <v>31.154140000000002</v>
+      </c>
+      <c r="E7">
+        <v>26.086980000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F36" si="0">E7*1.602*10^-19*10^-10/(3.1531606985049*2.73071726719376)/10^-20</f>
+        <v>4.8535943418720916E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.0134328454622852</v>
+      </c>
+      <c r="C8">
+        <v>-4.6773800000000003</v>
+      </c>
+      <c r="D8">
+        <v>30.753679999999999</v>
+      </c>
+      <c r="E8">
+        <v>26.0763</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8516072821368824E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.93547647273441714</v>
+      </c>
+      <c r="C9">
+        <v>-4.2876000000000003</v>
+      </c>
+      <c r="D9">
+        <v>30.351410000000001</v>
+      </c>
+      <c r="E9">
+        <v>26.06381</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8492834641506692E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.8575201000065491</v>
+      </c>
+      <c r="C10">
+        <v>-3.8978199999999998</v>
+      </c>
+      <c r="D10">
+        <v>29.947019999999998</v>
+      </c>
+      <c r="E10">
+        <v>26.049199999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8465652110859307E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.77956372727868095</v>
+      </c>
+      <c r="C11">
+        <v>-3.8978199999999998</v>
+      </c>
+      <c r="D11">
+        <v>29.947019999999998</v>
+      </c>
+      <c r="E11">
+        <v>26.049199999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8465652110859307E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.7016073545508128</v>
+      </c>
+      <c r="C12">
+        <v>-3.5080399999999998</v>
+      </c>
+      <c r="D12">
+        <v>29.540310000000002</v>
+      </c>
+      <c r="E12">
+        <v>26.03227</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8434153120862039E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.62365098182294476</v>
+      </c>
+      <c r="C13">
+        <v>-3.1182500000000002</v>
+      </c>
+      <c r="D13">
+        <v>29.131250000000001</v>
+      </c>
+      <c r="E13">
+        <v>26.013000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8398300460658416E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.54569460909507672</v>
+      </c>
+      <c r="C14">
+        <v>-2.7284700000000002</v>
+      </c>
+      <c r="D14">
+        <v>28.72006</v>
+      </c>
+      <c r="E14">
+        <v>25.991589999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8358466238813083E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.46773823636720857</v>
+      </c>
+      <c r="C15">
+        <v>-2.3386900000000002</v>
+      </c>
+      <c r="D15">
+        <v>28.311720000000001</v>
+      </c>
+      <c r="E15">
+        <v>25.973030000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8323934564013965E-9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.38978186363934048</v>
+      </c>
+      <c r="C16">
+        <v>-1.9489099999999999</v>
+      </c>
+      <c r="D16">
+        <v>27.91169</v>
+      </c>
+      <c r="E16">
+        <v>25.962779999999999</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8304864000075849E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.31182549091147238</v>
+      </c>
+      <c r="C17">
+        <v>-1.5591299999999999</v>
+      </c>
+      <c r="D17">
+        <v>27.524920000000002</v>
+      </c>
+      <c r="E17">
+        <v>25.965790000000002</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8310464233973771E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.23386911818360429</v>
+      </c>
+      <c r="C18">
+        <v>-1.1693499999999999</v>
+      </c>
+      <c r="D18">
+        <v>27.145669999999999</v>
+      </c>
+      <c r="E18">
+        <v>25.976319999999998</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8330055749902375E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.15591274545573619</v>
+      </c>
+      <c r="C19">
+        <v>-0.77956000000000003</v>
+      </c>
+      <c r="D19">
+        <v>26.761849999999999</v>
+      </c>
+      <c r="E19">
+        <v>25.982289999999999</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8341163190557063E-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7.7956372727868095E-2</v>
+      </c>
+      <c r="C20">
+        <v>-0.38978000000000002</v>
+      </c>
+      <c r="D20">
+        <v>26.366479999999999</v>
+      </c>
+      <c r="E20">
+        <v>25.976700000000001</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8330762756175194E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>26.029109999999999</v>
+      </c>
+      <c r="E21">
+        <v>26.029109999999999</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8428273805540644E-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-1</v>
+      </c>
+      <c r="B22" s="5">
+        <v>-7.7956372727868095E-2</v>
+      </c>
+      <c r="E22">
+        <v>26.083319999999997</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>4.852913383198789E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="5">
+        <v>-0.15591274545573619</v>
+      </c>
+      <c r="E23">
+        <v>26.077729999999999</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8518733397606037E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-3</v>
+      </c>
+      <c r="B24" s="5">
+        <v>-0.23386911818360429</v>
+      </c>
+      <c r="E24">
+        <v>26.0837</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8529840838260709E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-4</v>
+      </c>
+      <c r="B25" s="5">
+        <v>-0.31182549091147238</v>
+      </c>
+      <c r="E25">
+        <v>26.096029999999995</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8552781331271116E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-5</v>
+      </c>
+      <c r="B26" s="5">
+        <v>-0.38978186363934048</v>
+      </c>
+      <c r="E26">
+        <v>26.099039999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8558381565169047E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-6</v>
+      </c>
+      <c r="B27" s="5">
+        <v>-0.46773823636720857</v>
+      </c>
+      <c r="E27">
+        <v>26.088789999999996</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8539311001230939E-9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-7</v>
+      </c>
+      <c r="B28" s="5">
+        <v>-0.54569460909507672</v>
+      </c>
+      <c r="E28">
+        <v>26.070229999999999</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8504779326431821E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-8</v>
+      </c>
+      <c r="B29" s="5">
+        <v>-0.62365098182294476</v>
+      </c>
+      <c r="E29">
+        <v>26.048819999999996</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8464945104586472E-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-9</v>
+      </c>
+      <c r="B30" s="5">
+        <v>-0.7016073545508128</v>
+      </c>
+      <c r="E30">
+        <v>26.029549999999997</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8429092444382848E-9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-10</v>
+      </c>
+      <c r="B31" s="5">
+        <v>-0.77956372727868095</v>
+      </c>
+      <c r="E31">
+        <v>26.012619999999998</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8397593454385581E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-11</v>
+      </c>
+      <c r="B32" s="5">
+        <v>-0.8575201000065491</v>
+      </c>
+      <c r="E32">
+        <v>26.012619999999998</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8397593454385581E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-12</v>
+      </c>
+      <c r="B33" s="5">
+        <v>-0.93547647273441714</v>
+      </c>
+      <c r="E33">
+        <v>25.998009999999997</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8370410923738212E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-13</v>
+      </c>
+      <c r="B34" s="5">
+        <v>-1.0134328454622852</v>
+      </c>
+      <c r="E34">
+        <v>25.985519999999998</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>4.834717274387608E-9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-14</v>
+      </c>
+      <c r="B35" s="5">
+        <v>-1.0913892181901534</v>
+      </c>
+      <c r="E35">
+        <v>25.974839999999997</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8327302146523988E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-15</v>
+      </c>
+      <c r="B36" s="5">
+        <v>-1.1693455909180215</v>
+      </c>
+      <c r="E36">
+        <v>25.965569999999996</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8310054914552653E-9</v>
       </c>
     </row>
   </sheetData>
@@ -4840,7 +5383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0D90CB-E377-354C-9AC0-C7A74F8D32EB}">
   <dimension ref="B1:L32"/>
   <sheetViews>
